--- a/Data/LLM result/LLM_generate_strings/GPT4o/GPT4o  with EGRET/output_C.xlsx
+++ b/Data/LLM result/LLM_generate_strings/GPT4o/GPT4o  with EGRET/output_C.xlsx
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>regex</t>
+          <t>Regex</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -463,8 +463,8 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>positive example:[01, 1, 0011010, 01101, 011010, 0110010, 0110100, 0110101010, 01110, 11010]
-negative example:[0, 10, 101, 0110, 100, 1001, 111, 1100, 1000, 1101]</t>
+          <t>positive example:[01, 0011010, 01101, 11010, 0110010, 011010, 1, 0110101010, 0110100, 01110]
+negative example:[00, 01100, 1001, 1100, 01100, 10, 1110, 001100, 111, 001]</t>
         </is>
       </c>
     </row>
@@ -481,8 +481,8 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>positive example:[, a, aa, aaa, b]
-negative example:[c, ab, ba, bb]</t>
+          <t>positive example:[, a, aa, b, aaa, aaaa]  
+negative example:[ab, ba, bb, aba]</t>
         </is>
       </c>
     </row>
@@ -499,8 +499,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>positive example: [-1, -11, -21]
-negative example: [1, 0, -]</t>
+          <t>I'm sorry, but it seems you've provided a segment of a regular expression `-1` as context. Without a complete regular expression, it's not possible to generate meaningful positive and negative examples. Could you please provide the full regular expression?</t>
         </is>
       </c>
     </row>
@@ -517,8 +516,8 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>positive example: [a, b, ab, baa, baab, baaa, bb, babb, abba]
-negative example: [bba, aba, aaab, babbb, bbaa, bbab]</t>
+          <t>positive example: [a, aa, aaa, bab, baa, baab, baba, bbaa, baaaa, baabaa]  
+negative example: [b, ab, abb, bba, abaa, abab, bbab, baabbb, abba, bbb]</t>
         </is>
       </c>
     </row>
@@ -535,7 +534,8 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>positive example:[01, 001, 011, 0001, 00001, 0101],negative example:[0, 10, 111, 101, 0111, 110]</t>
+          <t>positive example:[0001, 001, 01, 011, 0101, 000101, 00101]  
+negative example:[0, 1, 10, 11, 00, 100, 101, 111]</t>
         </is>
       </c>
     </row>
@@ -552,8 +552,8 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>positive example:[010101110, 000101100, 10110, 01110, 0101100, 0010110]  
-negative example:[1110, 00110, 0101, 101001, 0000, 111111]</t>
+          <t>positive example: [0010110, 0100110, 01011, 010110, 0101100, 01110, 10110, 111]  
+negative example: [010, 110, 0110, 00110, 1001, 100, 1110, 1111]</t>
         </is>
       </c>
     </row>
@@ -570,7 +570,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>positive example:[1111],negative example:[111,11111,111111]</t>
+          <t>positive example:[1111], negative example:[1, 111, 11, 11111, 111111]</t>
         </is>
       </c>
     </row>
@@ -587,8 +587,8 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>positive example:[ab, abab, aabab, abb, bab, aabaab]  
-negative example:[aa, aaaa, baa, bba, abba, aabb]</t>
+          <t>positive example: [aabab, abaab, abab, abb, bab, bb]  
+negative example: [aa, baaa, bbb, a, bba, aaabb]</t>
         </is>
       </c>
     </row>
@@ -605,8 +605,8 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>positive example:[ab, abb, ba, aba, abba, abab, aabbab, babb, abbab, abbb, aabbb, ababab, abbabba, bbaab, abababbaa, baa, abbbbabbb]  
-negative example:[a, b, aaa, bbb, aabb, bbbbab, baaab, abababa, abbabbabaa, abbbbba, aaaabb, bbbaba, bab, abbbb, aabab, ababa, bbbaa]</t>
+          <t>positive example: [abba, abbab, abbaabbbbb, abbaabb, aabaabbb, aababbabbb, abaabb, abbbbb, abaaabbb, aababb]
+negative example: [ababab, ba, aaa, babbbba, bababab, abbbababb, abbabbaa, abababababbb, bababba, abbaabba]</t>
         </is>
       </c>
     </row>
@@ -623,8 +623,8 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>positive example:[ab, aab, aaab, aaaab, aaaaab]  
-negative example:[abab, aabb, ba, b, a, aaa, aaaa]</t>
+          <t>positive example:[aaab, aab, ab]  
+negative example:[b, a, aabc, ac, bb]</t>
         </is>
       </c>
     </row>
@@ -641,8 +641,8 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>positive example:[, baa, baabaa, baaaaa, baaaaaaaaaaa]
-negative example:[ba, b, abab, aa]</t>
+          <t>positive example:[, baa, baabaa, baaaaa, baabaaba, baabaaa]
+negative example:[ba, b, a, bab, baaab, abaa]</t>
         </is>
       </c>
     </row>
@@ -659,7 +659,8 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>positive example:[baa, bba],negative example:[bbb, bab, aba, aaa, abb]</t>
+          <t>positive example: [baa, bba]  
+negative example: [ba, bab, bbb, aa, ab]</t>
         </is>
       </c>
     </row>
@@ -676,7 +677,8 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>positive example:[aabbaaabb, abaaabb, ababbaaabb, abbaaaabb, abbaaab, abbaaababb, abbaaabb, abbaaabbb, abbaab, abbaabb, abbbaaabb, baaabb, baab, bbaaabb],negative example:[a, b, aa, bb, bab, aaaaa, bbabbb, baa, abaaaabbbbbab]</t>
+          <t>positive example: [baaabb, baaaabb, baabbaaabb, aaabaaabb, abbaaaabbb, aaabbaaabbb, abaabbaaabb, babaaabbb]
+negative example: [baa, aabaaabb, baaab, bbbbaaab, abab, aaab, bbaa, abbbaa]</t>
         </is>
       </c>
     </row>
@@ -693,8 +695,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>positive example:[abb, abbb, abbbb]  
-negative example:[ab, a, b]</t>
+          <t>positive example:[abb, abbb, abbbb],negative example:[a, ab, abbbbb]</t>
         </is>
       </c>
     </row>
@@ -711,7 +712,8 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>positive example:[a, b, ab, bb, bab, baab, bbb],negative example:[bbbba, aa, abb, baa, bcb]</t>
+          <t>positive example: [a, ab, bab, bbab, bbbaab, baab]
+negative example: [b, ba, abb, baa, bbbab, bbbb]</t>
         </is>
       </c>
     </row>
@@ -728,7 +730,8 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>positive example:[00110101110],negative example:[00110101010,00111001110,00110101100]</t>
+          <t>positive example: [00110101110]  
+negative example: [00111010110, 10110101110, 0011010111, 01110101110]</t>
         </is>
       </c>
     </row>
@@ -745,7 +748,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>positive example:[1, 11, 1I],negative example:[I, 2, III]</t>
+          <t>Sure, please provide the regular expression for which you would like me to generate positive and negative examples.</t>
         </is>
       </c>
     </row>
@@ -762,7 +765,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>positive example:[0, 1],negative example:[00, 11, 01, 10]</t>
+          <t>positive example: [0, 1], negative example: [00, 11, 10, 01, 2, a, -1]</t>
         </is>
       </c>
     </row>
@@ -779,8 +782,8 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t xml:space="preserve">positive example:[aaaabb, aabb, abbb, babb, bb, bbbb]  
-negative example:[babab, aaab, abba, aabbba, bbaaaa]  </t>
+          <t>positive example: [aaabb, abb, baabb, bb, aababb, bbaabb]  
+negative example: [aab, ba, bba, abab, baabaab, aabab]</t>
         </is>
       </c>
     </row>
@@ -797,8 +800,8 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t xml:space="preserve">positive example:[aabb, aabba, aabbaa, aabbb, aabbaaab, aabbabab, aabbaabab, aabbbaab]  
-negative example:[aab, abb, aabbc, aabbbc, aabbbab, abc, abba]  </t>
+          <t>positive example: [aabb, aabba, aabbaa, aabbb, aabbbb, aabbabb, aabbba]  
+negative example: [aa, aab, abab, baab, abb, bbaa, bbaba]</t>
         </is>
       </c>
     </row>
@@ -815,8 +818,8 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>positive example:[aaaab, aaab, aab, aabb, ab, abb, abbb, b, bb]
-negative example:[a, aaa, aaa, aaaabbb, aaaa, aaaaab]</t>
+          <t>positive example: [aaaab, aaab, aab, aabb, ab, abb, abbb, b, bb]  
+negative example: [aaa, aaaa, abbaa, aaaabaa, bbb, abba, a]</t>
         </is>
       </c>
     </row>
@@ -833,7 +836,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>positive example: [a, b], negative example: [c, d, e]</t>
+          <t>positive example: [a, b], negative example: [aa, bb, c]</t>
         </is>
       </c>
     </row>
@@ -850,7 +853,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>positive example: [a, b], negative example: [c, d, e]</t>
+          <t>positive example: [a, b], negative example: []</t>
         </is>
       </c>
     </row>
@@ -867,8 +870,8 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>positive example: [b, ab, aab, aaab, bb, bbb, aab]
-negative example: [a, aaa, ba, aabb, bab, aa, ba]</t>
+          <t>positive example: [b, ab, aab, aaab, aaaaab, bb, bbb]  
+negative example: [a, aa, aaaa, ba, aba, bab]</t>
         </is>
       </c>
     </row>
@@ -885,7 +888,8 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>positive example:[, 0, 00, 1111, 11110, 111100],negative example:[1, 110, 111, 10, 01111]</t>
+          <t>positive example: [1111000, 11110, 1111, 0, 00, 000, 11110000]  
+negative example: [1, 11, 111, 110, 101, 1110, 01111]</t>
         </is>
       </c>
     </row>
@@ -902,8 +906,8 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>positive example: [00011, 001, 001011, 0011, 00111, 01, 011, 10, 100, 10010, 1010, 101010, 10110, 110]
-negative example: [000, 111, 0000, 1111, 010, 101, 1100, 0110, 10011]</t>
+          <t>positive example:[00011, 001, 001011, 0011, 00111, 01, 011, 10, 100, 10010, 1010, 101010, 10110, 110]
+negative example:[0, 1, 00, 11, 1000, 111, 010, 101, 0000, 1111]</t>
         </is>
       </c>
     </row>
@@ -920,8 +924,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>positive example:[, 0, 1]
-negative example:[00, 10, 11, 001]</t>
+          <t>positive example:[, 0, 1],negative example:[00, 11, 01]</t>
         </is>
       </c>
     </row>
@@ -938,8 +941,8 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>positive example:[baaab, abaaab, bbaab, bbaaab, bbbaaab, bbaabaaab, bbaabb, bbaaaab, bbaabaaabb]  
-negative example:[bab, aaab, aabaa, bbab, bbbab]</t>
+          <t>positive example:[baaab, abaaab, bbaaab, aabaaab, baabaaab, baaabaaab, abaabaaab, bbaab, ababbaaab, bbaabaaab]
+negative example:[ab, aba, bbab, abba, abb, ababb, bb, bbb, aab, abbab]</t>
         </is>
       </c>
     </row>
@@ -956,8 +959,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>positive example: [0, 1]  
-negative example: []</t>
+          <t>positive example: [0, 1, 000, 111, 010, 101, 011, 100], negative example: [2, 10, 0010, 1100, 1112, 01, 22]</t>
         </is>
       </c>
     </row>
@@ -974,8 +976,8 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>positive example: [aaabbbaa, aabbaa, aabbba, aabbbaa, aabbbaaa, aabbbbaa, abba, abbbaa, aaaaabbaaaaa, aaabbbaaa, aabbbaaa, aabbaaa]
-negative example: [aaaa, bb, aaabbaa, ababab, aabb, abbbb, bbaa, aaabbba]</t>
+          <t>positive example:[aaabbbaa, aabbaa, aabbba, aabbbaa, aabbbaaa, aabbbbaa, abba, abbbaa]  
+negative example:[aaa, abbaaa, bbba, aaaaab, bbbaaa, bbb, aaabaaa]</t>
         </is>
       </c>
     </row>
@@ -992,8 +994,8 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>positive example:[ab, abbabb, abababa, abbaabba, bbb, abaab, aabbaabb]
-negative example:[aaa, bba, aaabb, babb, aaaaa, bbbbb, ababaaba]</t>
+          <t>Positive example: [aababa, abaaba, abab, ababa, ababaa, ababaababa, abba, baba, bb]  
+Negative example: [aa, bbaba, babaa, ba, bbaab, a, bbaaba]</t>
         </is>
       </c>
     </row>
@@ -1010,7 +1012,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>positive example:[100110, 10110, 101100, 101110, 110110]
+          <t>positive example:[100110, 10110, 101100, 101110, 110110]  
 negative example:[0110, 1010, 1011, 1110]</t>
         </is>
       </c>
@@ -1028,8 +1030,8 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>positive example:[baba, bababaaaba, baababaaba, bbabaaba, babababa, bababaababaaba, babaabaaba, babbaaba, bababaaba, bba]  
-negative example:[ba, bab, babaa, bbaa, bbabaa, babab, abababa, abba, bbaba, babaaa]</t>
+          <t>positive example: [baababaaba, baba, babaabaaba, bababaaaba, bababaaba, bababaababaaba, babababa, babbaaba, bba, bbabaaba]  
+negative example: [abaa, ababab, abaab, aabb, baaa, bbaaa, bab, aabab, bbbb, abba]</t>
         </is>
       </c>
     </row>
@@ -1046,7 +1048,8 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>positive example:[aa, bbaaa, bbaaaa],negative example:[bbaa, bbaaabbaaa]</t>
+          <t>positive example: [aa, bbaaa, bbaaaa, aaaa, bbaaaaa]  
+negative example: [bbaa, bbaaabbaaa, bb, a, bba, aab]</t>
         </is>
       </c>
     </row>
@@ -1063,7 +1066,8 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>positive example:[ba, bba, bba, bbba, bbbba],negative example:[a, aa, ab, b, bb]</t>
+          <t>positive example:[ba, bba, bbba, bba, bbbbbba]  
+negative example:[a, ab, aa, bbab, baba]</t>
         </is>
       </c>
     </row>
@@ -1080,7 +1084,8 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>positive example: [aaba, aabaa, aabaaa, aabab, baba, babaa], negative example: [abaaa, baa, bba, ababa, aaab, caba]</t>
+          <t>positive example: [aaba, aabaa, aabaaa, aabab, baba, babaa]  
+negative example: [aa, ab, ba, bb, aba, abaa,abaaab]</t>
         </is>
       </c>
     </row>
@@ -1097,8 +1102,8 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t xml:space="preserve">positive example:[, aba, abab, ababa, aaba, aababa, ababaa, babab, ababaababa, baaba]  
-negative example:[b, aa, abbab, babba, aabba, bbaa, bbabaa, baaaba]  </t>
+          <t>positive example: [ab, ababab, aabb, bababa, aababbab, abababab, abaabab, aaaaabbb, abababa, aabbaa]
+negative example: [a, aa, b, ba, abaa, bab, baab, aab, bba, abb]</t>
         </is>
       </c>
     </row>
@@ -1115,8 +1120,8 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>positive example: [00000, 000000, 00001, 00010, 00100, 01000, 10000]  
-negative example: [0000, 000, 1111111, 010101, 2, 0000011]</t>
+          <t>positive example: [00000, 00001, 00010, 00100, 01000, 01111, 10000, 10101, 11011, 11100]  
+negative example: [0000, 01, 1111, 1100, 011, 100]</t>
         </is>
       </c>
     </row>
@@ -1133,8 +1138,8 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t xml:space="preserve">positive example:[b, bab, babbab, babbabba, babbaabab, babbbabbab]  
-negative example:[ba, babab, babbb, babbba, babbabbab]  </t>
+          <t>positive example:[b, babbab, babbabab, babab, babababab]  
+negative example:[babba, babbababba, babbbbb, ba, babbbabbb]</t>
         </is>
       </c>
     </row>
@@ -1151,8 +1156,8 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>positive example:[1010101010, 0010101010, 0100101010, 101001010, 001010101, 010101010, 0101001010, 010101001010, 01010100101010, 0101011010, 0110101010]  
-negative example:[0, 10, 110, 0110, 1011, 01, 010, 100, 1111, 001]</t>
+          <t>positive example:[010101010, 001110, 0010101010, 01011010, 11010, 000101010, 000110110, 1110, 01010101010, 00010101010]
+negative example:[010, 10, 1, 0010, 1111, 00, 101, 110, 011, 100]</t>
         </is>
       </c>
     </row>
@@ -1169,8 +1174,8 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>positive example:[10000110, 11000110, 11001100, 11001110, 111100110]  
-negative example:[100111, 10100110, 10010110, 10110110]</t>
+          <t>positive example:[1000110, 100110, 1001100, 1001110, 1100110]  
+negative example:[00110, 10010, 10011, 10110]</t>
         </is>
       </c>
     </row>
@@ -1187,8 +1192,8 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>positive example:[aabbaa, aabbaaa, aaabbaa, abbaa, aababbaa, aabba, aabaa]  
-negative example:[aaa, bb, aaaa, bbaaa, abaa, abbbaa, aaabb, baa]</t>
+          <t>positive example: [aaabbaa, aabaa, aabba, aabbaa, aabbaaa, aabbbaa, aba, abbaa]  
+negative example: [aabbb, ab, aaabba, bbaaa, aaaaa, bbbaa, abb]</t>
         </is>
       </c>
     </row>
@@ -1205,8 +1210,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>positive example: [abaabb, baab, baabb, bbaaab, bbaab, bbaabb, bbaabbb, bbbaabb]
-negative example: [aaaab, bbabb, baabbb, caabbb, babaab, ababb]</t>
+          <t>positive example:[abaabb, baab, baabb, bbaaab, bbaab, bbaabb, bbaabbb, bbbaabb],negative example:[baaa, baa, aba, abb, ababb, bba, ababba, aabb]</t>
         </is>
       </c>
     </row>
@@ -1223,7 +1227,8 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>positive example:[aaaabbba, aaabb, aaabbb, aaabbaaa, aaabbbb, aaabbbbb, aaabbba, aaabbbba, aaabbbaa],negative example:[aa, aabba, abbbc, bbb, aaaa, bbba, abbb, abbba]</t>
+          <t>positive example: [aaaabbba, aaabba, aaabbb, aaabbba, aaabbbaa, aaabbbb, aaabbbba, aabb, aabbba]
+negative example: [aaab, aaabb, aab, ab, a, b, bbb, abbba, baaa]</t>
         </is>
       </c>
     </row>
@@ -1240,8 +1245,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>positive example: [a, baaa]  
-negative example: [b, aaa, aaab, abab]</t>
+          <t>positive example: [a, baaa], negative example: [b, aaa, ab, bbaaa]</t>
         </is>
       </c>
     </row>
@@ -1258,7 +1262,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>positive example:[, a, aa, b, aaa, aaaa],negative example:[ab, ba, bb, ac, bc]</t>
+          <t>positive example:[, a, aa, b, aaa, aaaa], negative example:[ab, ba, bb, abab, baa]</t>
         </is>
       </c>
     </row>
@@ -1275,7 +1279,8 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>positive example:[aaa, ab],negative example:[a, aa, b, aba, aaaa]</t>
+          <t>positive example: [aaa, ab]  
+negative example: [a, aa, b, aab, abb, aaaa, baa]</t>
         </is>
       </c>
     </row>
@@ -1292,8 +1297,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>positive example:[, a, aa, aaa, aaaa]
-negative example:[b, ab, ba, c, d]</t>
+          <t>positive example:[, a, aa],negative example:[b, ab, ba]</t>
         </is>
       </c>
     </row>
@@ -1310,8 +1314,8 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>positive example:[01, 001, 1001, 000101, 011, 1101]  
-negative example:[010, 11011, 1011, 100101, 110, 1110]</t>
+          <t>positive example: [01, 101, 001, 00101, 101001, 1001, 0101001]  
+negative example: [010, 1101, 100101, 10111, 1010, 1110, 0100]</t>
         </is>
       </c>
     </row>
@@ -1328,7 +1332,8 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>positive example:[01, 1, 0111, 10, 010, 0110, 0100], negative example:[00, 111, 110, 1001, 101, 0011]</t>
+          <t>positive example:[0010, 01, 010, 0100, 0111, 1, 10]  
+negative example:[0, 110, 111, 1011, 1100, 1110]</t>
         </is>
       </c>
     </row>
@@ -1345,8 +1350,8 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>positive example:[, a, aa, abb, bba, bbaba]
-negative example:[ab, aab, bab, bbb, c, abba, bbaa]</t>
+          <t>positive example: [a, bb, abba, bbab, abbbba]  
+negative example: [b, abab, bbb, baa, ababab]</t>
         </is>
       </c>
     </row>
@@ -1363,7 +1368,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>positive example:[0,01],negative example:[1,00,11,001,010]</t>
+          <t>positive example: [0, 01], negative example: [00, 011, 1, 10]</t>
         </is>
       </c>
     </row>
@@ -1380,7 +1385,8 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>positive example:[b, aab, aaaab],negative example:[aa, ab, a]</t>
+          <t>positive example: [b, aab, aaaab]  
+negative example: [aa, a, ab, ba, bb]</t>
         </is>
       </c>
     </row>
@@ -1397,7 +1403,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>positive example:[0, 1],negative example:[empty string]</t>
+          <t>positive example:[0, 1], negative example:[]</t>
         </is>
       </c>
     </row>
@@ -1414,8 +1420,8 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t xml:space="preserve">positive example:[aaabbbb, ababbb, abbbbb, baaabbb, babbbb]  
-negative example:[bbb, abab, baab, abb, bbba]  </t>
+          <t>positive example:[aaabbbb, aababbb, ababbbb, baabbb, bbabbbb]  
+negative example:[aab, babb, bbba]</t>
         </is>
       </c>
     </row>
@@ -1432,8 +1438,8 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>positive example:[aab, aaba, aabaa, aabb, abb, abba]  
-negative example:[aa, abab, ba, bbb, bba, aaaaa]</t>
+          <t>positive example: [aab, aaba, aabaa, aabb, abb, abba]  
+negative example: [aa, a, b, aba, ab, baa, bb, baab]</t>
         </is>
       </c>
     </row>
@@ -1450,8 +1456,8 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t xml:space="preserve">positive example:[a, aaa, aaaaa, aaaaaaa, aaaaaaaaa]  
-negative example:[aa, aaaa, aaaaaa, aaaaaa, a]  </t>
+          <t>positive example:[a, aaa, aaaaa, aaaaaaa, aaaaaaaaa]  
+negative example:[aa, aaaa, aaaaaa, aaaaaaaa, aaaaaaaaaa]</t>
         </is>
       </c>
     </row>
@@ -1468,7 +1474,8 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>positive example:[aab, aaba, aabaa, aabb, abb, abba],negative example:[aaa, ba, bba, bab, bbab, ab]</t>
+          <t>positive example: [aab, aaba, aabaa, aabb, abb, abba, aabab, abab, abaa]  
+negative example: [aa, aba, bba, ba, bb, b, aaa, bbb]</t>
         </is>
       </c>
     </row>
@@ -1485,7 +1492,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>positive example:[a,a,a],negative example:[b,c,d]</t>
+          <t>positive example: [a], negative example: [b, aa, ab]</t>
         </is>
       </c>
     </row>
@@ -1502,7 +1509,8 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>positive example:[abab, baab, abbb],negative example:[aaaa, bbb, aba]</t>
+          <t>positive example: [abba, abaa, abab, baba, bbaa, bbab]  
+negative example: [aaa, bbb, aba, baa, bba]</t>
         </is>
       </c>
     </row>
@@ -1519,7 +1527,21 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>positive example:[0],negative example:[1,2,a,b,c]</t>
+          <t>I apologize for any misunderstanding, but it seems that the regular expression in question was not provided. To proceed, I'll demonstrate with a simple regular expression, and generate positive and negative examples based on that. If you have a specific regular expression in mind, please provide it for accurate examples.
+For a given regular expression: `a*b`
+Positive examples (matches the expression):
+- `b`
+- `ab`
+- `aab`
+- `aaab`
+- `aaaaaaab`
+Negative examples (does not match the expression):
+- `a`
+- `ba`
+- `abc`
+- `bb`
+- `aaa`
+If you have your specific regular expression, please include it, and I can generate examples accordingly.</t>
         </is>
       </c>
     </row>
@@ -1536,7 +1558,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>positive example: [1I, 11I, 111I], negative example: [I1, 1II, 2I]</t>
+          <t>Please provide the regular expression for which you would like me to generate examples.</t>
         </is>
       </c>
     </row>
@@ -1553,8 +1575,8 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>positive example:[aab, abb, aabaab, aabab, abbab, aababab]  
-negative example:[aabb, aba, abbba, aaabab, abba]</t>
+          <t>positive example: [aab, aabaab, aabab, aababab, abb, abbab, abba, abab, aabba]
+negative example: [aabb, aa, ab, ba, bb, aaa, bba, abaa]</t>
         </is>
       </c>
     </row>
@@ -1571,8 +1593,8 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>positive example: [1, 110, 0001, 10101, 1001001, 111001, 10101110]  
-negative example: [2, 111, 0002, 1a0101, 10102, 1011, 0b001]</t>
+          <t>positive example:[0, 0001, 1, 1001, 110101, 110001, 11100110101]  
+negative example:[01, 1100, 10011, 0010, 010101, 111011, 111]</t>
         </is>
       </c>
     </row>
@@ -1589,9 +1611,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-positive example:[0101, 000101, 10101, 0101001, 110101, 0010101, 0000101, 1010101, 010110, 010101]
-negative example:[01111, 10100, 000111, 1100, 11101, 1001, 0110, 00000, 11110, 1011]</t>
+          <t>positive example:[0101, 1010101, 0000010101, 110101, 0101010, 0000101, 10010100, 01010101], negative example:[110010, 00100, 111000, 1111, 111, 0000, 10111, 010]</t>
         </is>
       </c>
     </row>
@@ -1608,7 +1628,8 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>positive example:[aaba, aba, ba, aaaba, aaaaaba],negative example:[b, aa, aaa, ab, a]</t>
+          <t>positive example: [ba, aba, aaba, aaaba, aaaaba]  
+negative example: [a, aa, ab, baa, baba]</t>
         </is>
       </c>
     </row>
@@ -1625,8 +1646,8 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>positive example:[abab, bba, bbbaa, aabb, ababb, abbab]
-negative example:[ababa, aabba, bbaaa, ba, aaa]</t>
+          <t>positive example: [aabab, abaab, abab, abb, bab, bb]  
+negative example: [aaa, aaaba, baa, baaba, aabb, abaa]</t>
         </is>
       </c>
     </row>
@@ -1643,7 +1664,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>positive example:[1I, 1I1I, 1I1I1I],negative example:[II, 111, I1I]</t>
+          <t>Sure, please provide the regular expression you would like examples for.</t>
         </is>
       </c>
     </row>
@@ -1660,8 +1681,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>positive example:[1011, 001011, 010011, 0111, 01011, 000011]  
-negative example:[000111, 0110, 10011, 110, 00110, 01]</t>
+          <t>positive example:[011, 1011, 001011, 01011, 010011, 0111, 111], negative example:[00, 1, 0110, 1101, 1000, 0011, 1010]</t>
         </is>
       </c>
     </row>
@@ -1678,7 +1698,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>positive example: [-1], negative example: []</t>
+          <t>positive example: [-1, -1, -1], negative example: [1, 0, 2, -2, a, abc, 10]</t>
         </is>
       </c>
     </row>
@@ -1695,8 +1715,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>positive example: [001, 10101, 110]  
-negative example: [000, 111, 010]</t>
+          <t>positive example: [001, 10101, 110], negative example: [0, 1, 11]</t>
         </is>
       </c>
     </row>
@@ -1713,7 +1732,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>positive example:[11010110],negative example:[1101011, 110101101, 1010110, 11010100, 111010110]</t>
+          <t>positive example:[11010110],negative example:[0,1,00,111,1010,110110,11111111,110101]</t>
         </is>
       </c>
     </row>
@@ -1730,7 +1749,8 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>positive example:[00101, 01001, 0101, 011, 101, 11],negative example:[0, 00, 111, 1000, 10101, 110]</t>
+          <t>positive example:[00101, 01001, 0101, 011, 101, 11]  
+negative example:[0, 00, 000, 111, 1001, 1010]</t>
         </is>
       </c>
     </row>
@@ -1747,7 +1767,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>positive example: [ba, baa, baaa, baaaa], negative example: [b, a, aab, ab]</t>
+          <t>positive example:[ba, baa, baaa, baaaa],negative example:[b, bb, a, ab, aba]</t>
         </is>
       </c>
     </row>
@@ -1764,7 +1784,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>positive example: [aaab, aab, ab], negative example: [b, aabb, aaaa, bb, a]</t>
+          <t>positive example:[aaab, aab, ab, ab, aaab, aaaab], negative example:[b, a, abb, ba, bab, aaba]</t>
         </is>
       </c>
     </row>
@@ -1781,7 +1801,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>positive example:[abba, ababba, abbaabba],negative example:[abb, babba, aaba]</t>
+          <t>positive example: [abba], negative example: [abab, baab, abca, bbaa, aaaa]</t>
         </is>
       </c>
     </row>
@@ -1798,7 +1818,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>positive example:[0001010, 010101, 1010101, 11101010, 0101010, 0010101],negative example:[000110, 0111001, 111000, 100101, 01010, 101111]</t>
+          <t>positive example:[0010100, 10101, 1101011, 0101010, 0101001], negative example:[00010, 11001, 01111, 000110, 1010111]</t>
         </is>
       </c>
     </row>
@@ -1815,7 +1835,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>positive example:[bb, bbbb, bbbbbb, bbbbbbbb], negative example:[b, bbb, a, ab, ba]</t>
+          <t>positive example: [bb, bbbb, bbbbbb, bbbbbbbb], negative example: [b, bbb, bbbbb, bbbbbb]</t>
         </is>
       </c>
     </row>
@@ -1832,7 +1852,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>positive example:[, 0, 00, 11, 110, 1100],negative example:[10, 01, 101, 111, 011]</t>
+          <t>positive example:[, 0, 00, 11, 110, 1100],negative example:[1, 10, 101, 111, 010]</t>
         </is>
       </c>
     </row>
@@ -1849,8 +1869,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>positive example:[aaab, aab, ab, aaaaaab, aaaaab]
-negative example:[a, b, aa, aaa, ba]</t>
+          <t>positive example: [ab, aab, aaab, aaaab, aaaaab], negative example: [b, a, ba, bb, aa, aaba]</t>
         </is>
       </c>
     </row>
@@ -1867,8 +1886,8 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Positive example: [aa, aaaababaaa, aaabaababaaa, aabaabaa, aabaabaabaababaaa, aabaabaababaaa, aabaababaaa, aabaababaabaaa, aabaababbaaa, aababaaa, aabbaababaaa, abaaa]
-Negative example: [aabaabaaaa, abaababaaa, aaab, aababa, aabaaabaa, aabbaaabaa]</t>
+          <t>positive example: [aa, aaaababaaa, aaabaababaaa, aabaabaa, aabaabaabaababaaa, aabaabaababaaa, aabaababaaa, aabaababaabaaa, aabaababbaaa, aababaaa, aabbaababaaa, abaaa]  
+negative example: [aabaabaaaa, abaababaaa]</t>
         </is>
       </c>
     </row>
@@ -1885,8 +1904,8 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>positive example:[baaab, abaaab, bbaab, bbaaab, bbaabaaab, bbaabb, baabaaab, bbbaaab, bbaaaab, baab]  
-negative example:[bab, bbaaa, aabab, ababab, ba, aab]</t>
+          <t>positive example: [abaaab, baaab, baab, bbaaaab, bbaaab, bbaaabb, bbaab, bbaabaaab, bbaabb, bbbaaab]  
+negative example: [bab, bbaaa]</t>
         </is>
       </c>
     </row>
@@ -1903,7 +1922,8 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>positive example:[01, 0001, 110, 100, 1110, 001, 10, 011], negative example:[0, 1, 0011, 111, 101, 0000, 1101, 010]</t>
+          <t>positive example:[0001, 001, 01, 011, 10, 100, 110, 1110]
+negative example:[0, 1, 0111, 101, 1101, 1011, 111, 010]</t>
         </is>
       </c>
     </row>
@@ -1920,7 +1940,8 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>positive example:[aba, ababa, aabababa, aaaba, abaa, abbbabaa, aababababa, ababab, abba, baa],negative example:[a, b, bb, ab, baaab, bab, aabba, bbaba, abb, baabaa]</t>
+          <t>positive example: [aabababa, aba, abaababa, ababaaba, abababa, abababababa, ababba, abbaba, ba, bababa]
+negative example: [aab, abaab, bb, abaa, bbaba, aaab, bbaa, abbabaa, baa]</t>
         </is>
       </c>
     </row>
@@ -1937,7 +1958,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>positive example:[, 0, 00],negative example:[I, 0I, 0a]</t>
+          <t>positive example:[, 0, 00, 000, 0000], negative example:[1, 01, 10, 001, 100]</t>
         </is>
       </c>
     </row>
@@ -1954,7 +1975,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>positive example:[a, aa, abba, aabab, bba, baa, aba, abbba],negative example:[b, abb, bab, bb, bbab, baab, abab]</t>
+          <t>positive example:[a, aa, ba, aaba, ababa], negative example:[b, bb, bba, abb, abab]</t>
         </is>
       </c>
     </row>
@@ -1971,7 +1992,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>positive example: [01, 010, 011], negative example: [0, 1, 00, 11, 101]</t>
+          <t>positive example: [01, 010, 011], negative example: [0, 00, 111, 110, 101]</t>
         </is>
       </c>
     </row>
@@ -1988,7 +2009,8 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>positive example:[00000, 00001, 00010, 00011, 00100, 00101, 00110, 00111, 01000, 01001, 01010, 01011, 01100, 01101, 01110, 01111, 10000, 10001, 10010, 10011, 10100, 10101, 10110, 10111, 11000, 11001, 11010, 11011, 11100, 11101, 11110, 11111],negative example:[000, 001, 01, 100, 11, 0, 1, 111111]</t>
+          <t>positive example: [00000, 1111111, 01100, 10101, 11010, 11011, 01010]  
+negative example: [000, 11, 0101, 001, 1010, 00, 1]</t>
         </is>
       </c>
     </row>
@@ -2005,8 +2027,8 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>positive example:[, 0010101010, 0100101010, 0101001010, 0101010010, 01010101, 010101010, 0101010100, 010101010010101010, 01010110, 01011010, 01101010, 10101010]
-negative example:[0, 01, 101, 000010, 11101010, 1010101, 0101100110, 010101001, 110101010, 101001010]</t>
+          <t>positive example: [101010, 001010, 0101010, 00101010, 1010, 010, 01010, 01010101010, 00010101010, 0101010101010, 0000101010, 010101010100, 00101010]
+negative example: [1, 1101010, 1010101, 101010101, 0101010101, 001101010, 10101, 0001010, 111111, 01111010, 10001010]</t>
         </is>
       </c>
     </row>
@@ -2023,8 +2045,8 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>positive example:[0, 0001, 1, 1001, 1001001, 11010, 1110]
-negative example:[01101, 10001110, 1100, 110110, 1001011, 101]</t>
+          <t>positive example: [0, 1, 0001, 1001, 11010, 110, 1010]  
+negative example: [11, 010, 100, 101, 111, 0100, 1100]</t>
         </is>
       </c>
     </row>
@@ -2041,8 +2063,8 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>positive example:[abb, bababb, ababbb, aabababb, bb, abababb, abbabb, ababaabb, abaababb, abababababb]  
-negative example:[ab, aab, ba, baba, aa, babbb, baa, ababbba, ababba, abbb]</t>
+          <t>Positive example: [abb, abababb, bb, aabababb, bababb, abababababb, abaababb, ababbb, ababaabb, abbabb]
+Negative example: [aab, baa, aaa, bab, bbb, abaa, abba, bba, aa, bbbb]</t>
         </is>
       </c>
     </row>
@@ -2059,8 +2081,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>positive example:[abb, abbb, abbbb]
-negative example:[a, b, abba]</t>
+          <t>positive example:[ab, abb, abbb, abbbb], negative example:[a, b, aa, ba, bb, bbb]</t>
         </is>
       </c>
     </row>
@@ -2077,8 +2098,8 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t xml:space="preserve">positive example:[aabab, abab, abbaabb, abbabb, abbbb, bab, bbbb]  
-negative example:[ba, bba, aaabab, ababa, babb, bbbaaa]  </t>
+          <t>positive example: [aabab, abab, abbaabb, abbabb, abbbb, bab, bbbb]  
+negative example: [aa, aba, aab, b, baab, abbb, baa]</t>
         </is>
       </c>
     </row>
@@ -2095,8 +2116,8 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>positive example:[, aabaa, abaa, abaaa, abaaaabaa, abaaabaa, baabaa, aabaaabaa, abaabaa, abaaabaabaa, abaaabaaabaa, abaabaaabaa]  
-negative example:[aa, b, aaa, babaa, baaabaa, aaaa, ab, bab, bb, baaa]</t>
+          <t>positive example: [aba, aaba, aabaa, aabaaa, abaabaa, baabaa, aabaaabaa]
+negative example: [a, bb, b, aa, ba, aaa, bab, aab, baa, aabaaaa]</t>
         </is>
       </c>
     </row>
@@ -2113,8 +2134,8 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>positive example: [a, aa, aaa, b, ba, baa, bba, bb]
-negative example: [ab, bbab, aba, ca, cab, abba]</t>
+          <t>positive example:[a, aa, aaa, ba, baa, bba, aaaa]  
+negative example:[b, bb, abb, c, bab, abab, bc]</t>
         </is>
       </c>
     </row>
@@ -2131,8 +2152,8 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>positive example:[001010101011, 00101011, 010010101011, 010100101011, 010101001011, 01010101, 010101010011, 01010101011, 01010101011011, 0101010111, 0101011011, 01011010101011, 0101101011, 0110101011, 1010101011, 11]  
-negative example:[01, 0011, 0101010, 010101101, 1010100, 0001011011, 1100101011, 010011, 10011011, 01110]</t>
+          <t>Positive examples: [001011, 011011, 01011011, 101101, 101011, 111, 010101011, 0101101011, 010111, 11001011]
+Negative examples: [000, 0110, 01010, 101, 1110, 101000, 10011, 011, 100101, 1010110]</t>
         </is>
       </c>
     </row>
